--- a/Utilidades.xlsx
+++ b/Utilidades.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Max Baylon\Desktop\ITESO\9no Semestre\Modelos de Credito\Modelo-Crediticio-FC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCC50AF5-43E3-472F-9D2A-267610B7A1AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C79F7E92-EB0E-4A3E-B31F-F7ECCDB6178A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DDB34A7C-D77D-4966-B4E1-D55CABDBE25F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{DDB34A7C-D77D-4966-B4E1-D55CABDBE25F}"/>
   </bookViews>
   <sheets>
     <sheet name="Utilidades" sheetId="2" r:id="rId1"/>
@@ -71,19 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="50">
-  <si>
-    <t>MODELED_SCORE</t>
-  </si>
-  <si>
-    <t>.25 &lt; .40</t>
-  </si>
-  <si>
-    <t>.40 &gt;=</t>
-  </si>
-  <si>
-    <t>&gt;= .25</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="52">
   <si>
     <t>EXCELENTE</t>
   </si>
@@ -221,6 +209,24 @@
   </si>
   <si>
     <t>CONTEMPLANDO QUE TODOS PAGARAN BIEN</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>CUALITATIVAS</t>
+  </si>
+  <si>
+    <t>CUANTITATIVAS</t>
+  </si>
+  <si>
+    <t>Sujeto a negociación</t>
   </si>
 </sst>
 </file>
@@ -229,9 +235,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="167" formatCode="0.0%"/>
+    <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -260,8 +266,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="19">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -283,24 +296,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -370,6 +365,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="18">
     <border>
@@ -582,19 +583,12 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -603,15 +597,6 @@
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -629,149 +614,189 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="5" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="5" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="15" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="14" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="9" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="44" fontId="2" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="44" fontId="2" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="8" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="9" fontId="0" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="10" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="10" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="8" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="8" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="11" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="44" fontId="0" fillId="9" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="44" fontId="0" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="10" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="10" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="10" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="11" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="9" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="18" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="17" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="12" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -1088,10 +1113,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97786D2C-F2F3-413F-87FC-440286333C45}">
-  <dimension ref="B2:O39"/>
+  <dimension ref="B2:V39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K30" sqref="K30"/>
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1103,150 +1128,209 @@
     <col min="6" max="6" width="20" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="26" customWidth="1"/>
     <col min="8" max="8" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.42578125" customWidth="1"/>
-    <col min="10" max="10" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.42578125" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="23.85546875" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="24.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="31" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="3.85546875" customWidth="1"/>
     <col min="15" max="15" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="22" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="7" t="s">
+    <row r="2" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R2" s="97"/>
+      <c r="S2" s="97"/>
+      <c r="T2" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="U2" s="90"/>
+      <c r="V2" s="90"/>
+    </row>
+    <row r="3" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="5">
+        <v>10000000</v>
+      </c>
+      <c r="E3" s="6"/>
+      <c r="R3" s="97"/>
+      <c r="S3" s="97"/>
+      <c r="T3" s="92" t="s">
+        <v>46</v>
+      </c>
+      <c r="U3" s="94" t="s">
+        <v>47</v>
+      </c>
+      <c r="V3" s="96" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J4" s="69" t="s">
+        <v>4</v>
+      </c>
+      <c r="K4" s="70"/>
+      <c r="L4" s="70"/>
+      <c r="M4" s="71"/>
+      <c r="R4" s="66" t="s">
+        <v>50</v>
+      </c>
+      <c r="S4" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="T4" s="89">
+        <v>0.08</v>
+      </c>
+      <c r="U4" s="89">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="V4" s="89">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="5" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J5" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="M5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="8">
-        <v>10000000</v>
-      </c>
-      <c r="E3" s="9"/>
-      <c r="J3" s="10" t="s">
+      <c r="R5" s="66"/>
+      <c r="S5" s="93" t="s">
+        <v>1</v>
+      </c>
+      <c r="T5" s="89">
+        <v>0.09</v>
+      </c>
+      <c r="U5" s="89">
+        <v>0.1</v>
+      </c>
+      <c r="V5" s="89">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="6" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="12"/>
-    </row>
-    <row r="4" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J4" s="13" t="s">
+      <c r="C6" s="67" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L4" s="13" t="s">
+      <c r="E6" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="M4" s="14" t="s">
+      <c r="F6" s="74" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J5" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="K5" s="16" t="s">
+      <c r="G6" s="67" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="67" t="s">
+        <v>35</v>
+      </c>
+      <c r="I6" s="67" t="s">
         <v>34</v>
       </c>
-      <c r="L5" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="M5" s="18" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="19" t="s">
+      <c r="J6" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="L6" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M6" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="R6" s="66"/>
+      <c r="S6" s="95" t="s">
+        <v>2</v>
+      </c>
+      <c r="T6" s="89">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="U6" s="89">
+        <v>0.12</v>
+      </c>
+      <c r="V6" s="89">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="68"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="75"/>
+      <c r="G7" s="68"/>
+      <c r="H7" s="68"/>
+      <c r="I7" s="68"/>
+      <c r="J7" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="20" t="s">
+      <c r="K7" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="21" t="s">
+      <c r="L7" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="19" t="s">
+      <c r="M7" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="I6" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="J6" s="22"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="24"/>
-      <c r="M6" s="25"/>
-    </row>
-    <row r="7" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="26"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="K7" s="29" t="s">
+    </row>
+    <row r="8" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B8" s="49">
+        <v>0.08</v>
+      </c>
+      <c r="C8" s="37">
         <v>18</v>
       </c>
-      <c r="L7" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="M7" s="14" t="s">
+      <c r="D8" s="29">
+        <v>0.25</v>
+      </c>
+      <c r="E8" s="32" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B8" s="72">
-        <v>0.08</v>
-      </c>
-      <c r="C8" s="60">
-        <v>18</v>
-      </c>
-      <c r="D8" s="51">
-        <v>0.25</v>
-      </c>
-      <c r="E8" s="54" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" s="30">
+      <c r="F8" s="15">
         <f>+D8*$C$3</f>
         <v>2500000</v>
       </c>
-      <c r="G8" s="30">
-        <f>F8*B8</f>
+      <c r="G8" s="15">
+        <f t="shared" ref="G8:G16" si="0">F8*B8</f>
         <v>200000</v>
       </c>
-      <c r="H8" s="56">
-        <f>+F8/C8</f>
+      <c r="H8" s="33">
+        <f t="shared" ref="H8:H16" si="1">+F8/C8</f>
         <v>138888.88888888888</v>
       </c>
-      <c r="I8" s="56">
-        <f>+G8/C8</f>
+      <c r="I8" s="33">
+        <f t="shared" ref="I8:I16" si="2">+G8/C8</f>
         <v>11111.111111111111</v>
       </c>
-      <c r="J8" s="32">
+      <c r="J8" s="79">
         <v>0.96</v>
       </c>
-      <c r="K8" s="33">
+      <c r="K8" s="87">
         <v>0.02</v>
       </c>
-      <c r="L8" s="34">
+      <c r="L8" s="17">
         <v>0.01</v>
       </c>
-      <c r="M8" s="35">
+      <c r="M8" s="18">
         <v>0.01</v>
       </c>
       <c r="O8" s="2">
@@ -1254,923 +1338,1037 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B9" s="73">
+    <row r="9" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B9" s="50">
         <v>0.09</v>
       </c>
-      <c r="C9" s="61">
+      <c r="C9" s="38">
         <v>18</v>
       </c>
-      <c r="D9" s="52">
+      <c r="D9" s="30">
         <v>0.16</v>
       </c>
-      <c r="E9" s="29" t="s">
+      <c r="E9" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="19">
+        <f t="shared" ref="F9:F16" si="3">+D9*$C$3</f>
+        <v>1600000</v>
+      </c>
+      <c r="G9" s="19">
+        <f t="shared" si="0"/>
+        <v>144000</v>
+      </c>
+      <c r="H9" s="16">
+        <f t="shared" si="1"/>
+        <v>88888.888888888891</v>
+      </c>
+      <c r="I9" s="16">
+        <f t="shared" si="2"/>
+        <v>8000</v>
+      </c>
+      <c r="J9" s="79">
+        <v>0.94</v>
+      </c>
+      <c r="K9" s="87">
+        <v>0.03</v>
+      </c>
+      <c r="L9" s="17">
+        <v>0.02</v>
+      </c>
+      <c r="M9" s="18">
+        <v>0.01</v>
+      </c>
+      <c r="O9" s="2">
+        <f t="shared" ref="O9:O16" si="4">+SUM(J9:M9)</f>
+        <v>1</v>
+      </c>
+      <c r="R9" s="97"/>
+      <c r="S9" s="97"/>
+      <c r="T9" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="U9" s="90"/>
+      <c r="V9" s="90"/>
+    </row>
+    <row r="10" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="51">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="C10" s="39">
+        <v>15</v>
+      </c>
+      <c r="D10" s="31">
+        <v>0.1</v>
+      </c>
+      <c r="E10" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="20">
+        <f t="shared" si="3"/>
+        <v>1000000</v>
+      </c>
+      <c r="G10" s="20">
+        <f t="shared" si="0"/>
+        <v>95000</v>
+      </c>
+      <c r="H10" s="21">
+        <f t="shared" si="1"/>
+        <v>66666.666666666672</v>
+      </c>
+      <c r="I10" s="21">
+        <f t="shared" si="2"/>
+        <v>6333.333333333333</v>
+      </c>
+      <c r="J10" s="80">
+        <v>0.88</v>
+      </c>
+      <c r="K10" s="88">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="L10" s="22">
+        <v>0.03</v>
+      </c>
+      <c r="M10" s="23">
+        <v>0.02</v>
+      </c>
+      <c r="O10" s="2">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="R10" s="97"/>
+      <c r="S10" s="97"/>
+      <c r="T10" s="92" t="s">
+        <v>46</v>
+      </c>
+      <c r="U10" s="94" t="s">
+        <v>47</v>
+      </c>
+      <c r="V10" s="96" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B11" s="49">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="C11" s="37">
+        <v>18</v>
+      </c>
+      <c r="D11" s="29">
+        <v>0.25</v>
+      </c>
+      <c r="E11" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="15">
+        <f t="shared" si="3"/>
+        <v>2500000</v>
+      </c>
+      <c r="G11" s="15">
+        <f t="shared" si="0"/>
+        <v>212500.00000000003</v>
+      </c>
+      <c r="H11" s="33">
+        <f t="shared" si="1"/>
+        <v>138888.88888888888</v>
+      </c>
+      <c r="I11" s="33">
+        <f t="shared" si="2"/>
+        <v>11805.555555555557</v>
+      </c>
+      <c r="J11" s="79">
+        <v>0.92</v>
+      </c>
+      <c r="K11" s="87">
+        <v>0.05</v>
+      </c>
+      <c r="L11" s="17">
+        <v>0.02</v>
+      </c>
+      <c r="M11" s="18">
+        <v>0.01</v>
+      </c>
+      <c r="O11" s="2">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="R11" s="66" t="s">
+        <v>50</v>
+      </c>
+      <c r="S11" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="T11" s="98">
+        <v>18</v>
+      </c>
+      <c r="U11" s="98">
+        <v>18</v>
+      </c>
+      <c r="V11" s="98">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B12" s="50">
+        <v>0.1</v>
+      </c>
+      <c r="C12" s="38">
+        <v>15</v>
+      </c>
+      <c r="D12" s="30">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="19">
+        <f t="shared" si="3"/>
+        <v>1400000.0000000002</v>
+      </c>
+      <c r="G12" s="19">
+        <f t="shared" si="0"/>
+        <v>140000.00000000003</v>
+      </c>
+      <c r="H12" s="16">
+        <f t="shared" si="1"/>
+        <v>93333.333333333343</v>
+      </c>
+      <c r="I12" s="16">
+        <f t="shared" si="2"/>
+        <v>9333.3333333333358</v>
+      </c>
+      <c r="J12" s="79">
+        <v>0.88</v>
+      </c>
+      <c r="K12" s="87">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="L12" s="17">
+        <v>0.03</v>
+      </c>
+      <c r="M12" s="18">
+        <v>0.02</v>
+      </c>
+      <c r="O12" s="2">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="R12" s="66"/>
+      <c r="S12" s="93" t="s">
+        <v>1</v>
+      </c>
+      <c r="T12" s="98">
+        <v>18</v>
+      </c>
+      <c r="U12" s="98">
+        <v>15</v>
+      </c>
+      <c r="V12" s="98">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="51">
+        <v>0.12</v>
+      </c>
+      <c r="C13" s="39">
+        <v>12</v>
+      </c>
+      <c r="D13" s="31">
+        <v>0.03</v>
+      </c>
+      <c r="E13" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="36">
-        <f t="shared" ref="F9:F16" si="0">+D9*$C$3</f>
-        <v>1600000</v>
-      </c>
-      <c r="G9" s="36">
-        <f>F9*B9</f>
-        <v>144000</v>
-      </c>
-      <c r="H9" s="31">
-        <f>+F9/C9</f>
-        <v>88888.888888888891</v>
-      </c>
-      <c r="I9" s="31">
-        <f>+G9/C9</f>
-        <v>8000</v>
-      </c>
-      <c r="J9" s="32">
-        <v>0.94</v>
-      </c>
-      <c r="K9" s="33">
+      <c r="F13" s="20">
+        <f t="shared" si="3"/>
+        <v>300000</v>
+      </c>
+      <c r="G13" s="20">
+        <f t="shared" si="0"/>
+        <v>36000</v>
+      </c>
+      <c r="H13" s="21">
+        <f t="shared" si="1"/>
+        <v>25000</v>
+      </c>
+      <c r="I13" s="21">
+        <f t="shared" si="2"/>
+        <v>3000</v>
+      </c>
+      <c r="J13" s="80">
+        <v>0.85</v>
+      </c>
+      <c r="K13" s="88">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="L13" s="22">
+        <v>0.05</v>
+      </c>
+      <c r="M13" s="23">
         <v>0.03</v>
       </c>
-      <c r="L9" s="34">
+      <c r="O13" s="2">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="R13" s="66"/>
+      <c r="S13" s="95" t="s">
+        <v>2</v>
+      </c>
+      <c r="T13" s="98">
+        <v>15</v>
+      </c>
+      <c r="U13" s="98">
+        <v>12</v>
+      </c>
+      <c r="V13" s="98">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B14" s="49">
+        <v>0.11</v>
+      </c>
+      <c r="C14" s="37">
+        <v>15</v>
+      </c>
+      <c r="D14" s="29">
+        <v>0.05</v>
+      </c>
+      <c r="E14" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" s="15">
+        <f t="shared" si="3"/>
+        <v>500000</v>
+      </c>
+      <c r="G14" s="15">
+        <f t="shared" si="0"/>
+        <v>55000</v>
+      </c>
+      <c r="H14" s="33">
+        <f t="shared" si="1"/>
+        <v>33333.333333333336</v>
+      </c>
+      <c r="I14" s="33">
+        <f t="shared" si="2"/>
+        <v>3666.6666666666665</v>
+      </c>
+      <c r="J14" s="79">
+        <v>0.82</v>
+      </c>
+      <c r="K14" s="87">
+        <v>0.08</v>
+      </c>
+      <c r="L14" s="17">
+        <v>0.06</v>
+      </c>
+      <c r="M14" s="18">
+        <v>0.04</v>
+      </c>
+      <c r="O14" s="2">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B15" s="50">
+        <v>0.16</v>
+      </c>
+      <c r="C15" s="38">
+        <v>12</v>
+      </c>
+      <c r="D15" s="30">
         <v>0.02</v>
       </c>
-      <c r="M9" s="35">
-        <v>0.01</v>
-      </c>
-      <c r="O9" s="2">
-        <f t="shared" ref="O9:O16" si="1">+SUM(J9:M9)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="74">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="C10" s="62">
-        <v>15</v>
-      </c>
-      <c r="D10" s="53">
-        <v>0.1</v>
-      </c>
-      <c r="E10" s="48" t="s">
-        <v>26</v>
-      </c>
-      <c r="F10" s="37">
+      <c r="E15" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" s="19">
+        <f t="shared" si="3"/>
+        <v>200000</v>
+      </c>
+      <c r="G15" s="19">
         <f t="shared" si="0"/>
-        <v>1000000</v>
-      </c>
-      <c r="G10" s="37">
-        <f>F10*B10</f>
-        <v>95000</v>
-      </c>
-      <c r="H10" s="38">
-        <f>+F10/C10</f>
-        <v>66666.666666666672</v>
-      </c>
-      <c r="I10" s="38">
-        <f>+G10/C10</f>
-        <v>6333.333333333333</v>
-      </c>
-      <c r="J10" s="39">
-        <v>0.88</v>
-      </c>
-      <c r="K10" s="40">
+        <v>32000</v>
+      </c>
+      <c r="H15" s="16">
+        <f t="shared" si="1"/>
+        <v>16666.666666666668</v>
+      </c>
+      <c r="I15" s="16">
+        <f t="shared" si="2"/>
+        <v>2666.6666666666665</v>
+      </c>
+      <c r="J15" s="79">
+        <v>0.77</v>
+      </c>
+      <c r="K15" s="87">
+        <v>0.09</v>
+      </c>
+      <c r="L15" s="17">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="L10" s="41">
-        <v>0.03</v>
-      </c>
-      <c r="M10" s="42">
-        <v>0.02</v>
-      </c>
-      <c r="O10" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B11" s="72">
-        <v>8.5000000000000006E-2</v>
-      </c>
-      <c r="C11" s="60">
-        <v>18</v>
-      </c>
-      <c r="D11" s="51">
-        <v>0.25</v>
-      </c>
-      <c r="E11" s="54" t="s">
-        <v>27</v>
-      </c>
-      <c r="F11" s="30">
-        <f t="shared" si="0"/>
-        <v>2500000</v>
-      </c>
-      <c r="G11" s="30">
-        <f>F11*B11</f>
-        <v>212500.00000000003</v>
-      </c>
-      <c r="H11" s="56">
-        <f>+F11/C11</f>
-        <v>138888.88888888888</v>
-      </c>
-      <c r="I11" s="56">
-        <f>+G11/C11</f>
-        <v>11805.555555555557</v>
-      </c>
-      <c r="J11" s="32">
-        <v>0.92</v>
-      </c>
-      <c r="K11" s="33">
+      <c r="M15" s="18">
         <v>0.05</v>
       </c>
-      <c r="L11" s="34">
-        <v>0.02</v>
-      </c>
-      <c r="M11" s="35">
-        <v>0.01</v>
-      </c>
-      <c r="O11" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B12" s="73">
-        <v>0.1</v>
-      </c>
-      <c r="C12" s="61">
-        <v>15</v>
-      </c>
-      <c r="D12" s="52">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="E12" s="29" t="s">
+      <c r="O15" s="2">
+        <f t="shared" si="4"/>
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="16" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="51">
+        <v>0.2</v>
+      </c>
+      <c r="C16" s="39">
+        <v>12</v>
+      </c>
+      <c r="D16" s="31">
+        <v>0</v>
+      </c>
+      <c r="E16" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="36">
-        <f t="shared" si="0"/>
-        <v>1400000.0000000002</v>
-      </c>
-      <c r="G12" s="36">
-        <f>F12*B12</f>
-        <v>140000.00000000003</v>
-      </c>
-      <c r="H12" s="31">
-        <f>+F12/C12</f>
-        <v>93333.333333333343</v>
-      </c>
-      <c r="I12" s="31">
-        <f>+G12/C12</f>
-        <v>9333.3333333333358</v>
-      </c>
-      <c r="J12" s="32">
-        <v>0.88</v>
-      </c>
-      <c r="K12" s="33">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="L12" s="34">
-        <v>0.03</v>
-      </c>
-      <c r="M12" s="35">
-        <v>0.02</v>
-      </c>
-      <c r="O12" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="74">
-        <v>0.12</v>
-      </c>
-      <c r="C13" s="62">
-        <v>12</v>
-      </c>
-      <c r="D13" s="53">
-        <v>0.03</v>
-      </c>
-      <c r="E13" s="48" t="s">
-        <v>29</v>
-      </c>
-      <c r="F13" s="37">
-        <f t="shared" si="0"/>
-        <v>300000</v>
-      </c>
-      <c r="G13" s="37">
-        <f>F13*B13</f>
-        <v>36000</v>
-      </c>
-      <c r="H13" s="38">
-        <f>+F13/C13</f>
-        <v>25000</v>
-      </c>
-      <c r="I13" s="38">
-        <f>+G13/C13</f>
-        <v>3000</v>
-      </c>
-      <c r="J13" s="39">
-        <v>0.85</v>
-      </c>
-      <c r="K13" s="40">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="L13" s="41">
-        <v>0.05</v>
-      </c>
-      <c r="M13" s="42">
-        <v>0.03</v>
-      </c>
-      <c r="O13" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B14" s="72">
-        <v>0.11</v>
-      </c>
-      <c r="C14" s="60">
-        <v>15</v>
-      </c>
-      <c r="D14" s="51">
-        <v>0.05</v>
-      </c>
-      <c r="E14" s="54" t="s">
-        <v>30</v>
-      </c>
-      <c r="F14" s="30">
-        <f t="shared" si="0"/>
-        <v>500000</v>
-      </c>
-      <c r="G14" s="30">
-        <f>F14*B14</f>
-        <v>55000</v>
-      </c>
-      <c r="H14" s="56">
-        <f>+F14/C14</f>
-        <v>33333.333333333336</v>
-      </c>
-      <c r="I14" s="56">
-        <f>+G14/C14</f>
-        <v>3666.6666666666665</v>
-      </c>
-      <c r="J14" s="32">
-        <v>0.82</v>
-      </c>
-      <c r="K14" s="33">
-        <v>0.08</v>
-      </c>
-      <c r="L14" s="34">
-        <v>0.06</v>
-      </c>
-      <c r="M14" s="35">
-        <v>0.04</v>
-      </c>
-      <c r="O14" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B15" s="73">
-        <v>0.16</v>
-      </c>
-      <c r="C15" s="61">
-        <v>12</v>
-      </c>
-      <c r="D15" s="52">
-        <v>0.02</v>
-      </c>
-      <c r="E15" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="F15" s="36">
-        <f t="shared" si="0"/>
-        <v>200000</v>
-      </c>
-      <c r="G15" s="36">
-        <f>F15*B15</f>
-        <v>32000</v>
-      </c>
-      <c r="H15" s="31">
-        <f>+F15/C15</f>
-        <v>16666.666666666668</v>
-      </c>
-      <c r="I15" s="31">
-        <f>+G15/C15</f>
-        <v>2666.6666666666665</v>
-      </c>
-      <c r="J15" s="32">
-        <v>0.77</v>
-      </c>
-      <c r="K15" s="33">
-        <v>0.09</v>
-      </c>
-      <c r="L15" s="34">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="M15" s="35">
-        <v>0.05</v>
-      </c>
-      <c r="O15" s="2">
-        <f t="shared" si="1"/>
-        <v>0.98</v>
-      </c>
-    </row>
-    <row r="16" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="74">
-        <v>0.2</v>
-      </c>
-      <c r="C16" s="62">
-        <v>12</v>
-      </c>
-      <c r="D16" s="53">
+      <c r="F16" s="20">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E16" s="48" t="s">
-        <v>32</v>
-      </c>
-      <c r="F16" s="37">
+      <c r="G16" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G16" s="37">
-        <f>F16*B16</f>
+      <c r="H16" s="21">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H16" s="38">
-        <f>+F16/C16</f>
+      <c r="I16" s="21">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I16" s="38">
-        <f>+G16/C16</f>
-        <v>0</v>
-      </c>
-      <c r="J16" s="39">
+      <c r="J16" s="80">
         <v>0.7</v>
       </c>
-      <c r="K16" s="40">
+      <c r="K16" s="88">
         <v>0.13</v>
       </c>
-      <c r="L16" s="41">
+      <c r="L16" s="22">
         <v>0.11</v>
       </c>
-      <c r="M16" s="42">
+      <c r="M16" s="23">
         <v>0.06</v>
       </c>
       <c r="O16" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="R16" s="97"/>
+      <c r="S16" s="97"/>
+      <c r="T16" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="U16" s="90"/>
+      <c r="V16" s="90"/>
+    </row>
+    <row r="17" spans="2:22" x14ac:dyDescent="0.25">
       <c r="D17" s="2">
         <f>+SUM(D8:D16)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="43" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" s="44" t="s">
-        <v>23</v>
-      </c>
-      <c r="D19" s="45"/>
-      <c r="E19" s="45"/>
-      <c r="F19" s="46"/>
+      <c r="R17" s="100" t="s">
+        <v>51</v>
+      </c>
+      <c r="S17" s="97"/>
+      <c r="T17" s="92" t="s">
+        <v>46</v>
+      </c>
+      <c r="U17" s="94" t="s">
+        <v>47</v>
+      </c>
+      <c r="V17" s="96" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R18" s="66" t="s">
+        <v>50</v>
+      </c>
+      <c r="S18" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="T18" s="99">
+        <v>40000000</v>
+      </c>
+      <c r="U18" s="99">
+        <v>30000000</v>
+      </c>
+      <c r="V18" s="99">
+        <v>9000000</v>
+      </c>
+    </row>
+    <row r="19" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="76" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="77"/>
+      <c r="E19" s="77"/>
+      <c r="F19" s="78"/>
       <c r="H19" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="20" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="54" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" s="47">
-        <f>+(H8+I8)*C8</f>
+        <v>45</v>
+      </c>
+      <c r="R19" s="66"/>
+      <c r="S19" s="93" t="s">
+        <v>1</v>
+      </c>
+      <c r="T19" s="99">
+        <v>32000000</v>
+      </c>
+      <c r="U19" s="99">
+        <v>20000000</v>
+      </c>
+      <c r="V19" s="99">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="20" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="81">
+        <f t="shared" ref="C20:C28" si="5">+(H8+I8)*C8</f>
         <v>2700000</v>
       </c>
-      <c r="D20" s="66">
-        <f>+H8*C8</f>
+      <c r="D20" s="25">
+        <f t="shared" ref="D20:D28" si="6">+H8*C8</f>
         <v>2500000</v>
       </c>
-      <c r="E20" s="66">
-        <f>+(H8*0.69)*C8</f>
+      <c r="E20" s="43">
+        <f t="shared" ref="E20:E28" si="7">+(H8*0.69)*C8</f>
         <v>1724999.9999999995</v>
       </c>
-      <c r="F20" s="69">
-        <f>-H8*C8</f>
+      <c r="F20" s="46">
+        <f t="shared" ref="F20:F28" si="8">-H8*C8</f>
         <v>-2500000</v>
       </c>
-      <c r="G20" s="6"/>
-      <c r="H20" s="77" t="s">
-        <v>47</v>
-      </c>
-      <c r="I20" s="78" t="s">
-        <v>44</v>
-      </c>
-      <c r="J20" s="79" t="s">
-        <v>45</v>
-      </c>
-      <c r="K20" s="80" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B21" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" s="49">
-        <f>+(H9+I9)*C9</f>
+      <c r="G20" s="3"/>
+      <c r="H20" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="I20" s="55" t="s">
+        <v>40</v>
+      </c>
+      <c r="J20" s="56" t="s">
+        <v>41</v>
+      </c>
+      <c r="K20" s="57" t="s">
+        <v>42</v>
+      </c>
+      <c r="R20" s="66"/>
+      <c r="S20" s="95" t="s">
+        <v>2</v>
+      </c>
+      <c r="T20" s="99">
+        <v>8000000</v>
+      </c>
+      <c r="U20" s="99">
+        <v>4000000</v>
+      </c>
+      <c r="V20" s="99">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="21" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B21" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="82">
+        <f t="shared" si="5"/>
         <v>1744000</v>
       </c>
-      <c r="D21" s="67">
-        <f>+H9*C9</f>
+      <c r="D21" s="27">
+        <f t="shared" si="6"/>
         <v>1600000</v>
       </c>
-      <c r="E21" s="67">
-        <f>+(H9*0.69)*C9</f>
+      <c r="E21" s="44">
+        <f t="shared" si="7"/>
         <v>1104000</v>
       </c>
-      <c r="F21" s="70">
-        <f>-H9*C9</f>
+      <c r="F21" s="47">
+        <f t="shared" si="8"/>
         <v>-1600000</v>
       </c>
-      <c r="G21" s="6"/>
-      <c r="H21" s="81" t="s">
-        <v>40</v>
-      </c>
-      <c r="I21" s="83">
+      <c r="G21" s="3"/>
+      <c r="H21" s="64" t="s">
+        <v>36</v>
+      </c>
+      <c r="I21" s="58">
         <f>+SUM(F8:G15)</f>
         <v>10914500</v>
       </c>
-      <c r="J21" s="84">
+      <c r="J21" s="59">
         <f>+I21*J22</f>
         <v>87316</v>
       </c>
-      <c r="K21" s="85">
+      <c r="K21" s="60">
         <f>+I21-J21</f>
         <v>10827184</v>
       </c>
       <c r="L21" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="48" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" s="50">
-        <f>+(H10+I10)*C10</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="83">
+        <f t="shared" si="5"/>
         <v>1095000</v>
       </c>
-      <c r="D22" s="68">
-        <f>+H10*C10</f>
+      <c r="D22" s="28">
+        <f t="shared" si="6"/>
         <v>1000000.0000000001</v>
       </c>
-      <c r="E22" s="68">
-        <f>+(H10*0.69)*C10</f>
+      <c r="E22" s="45">
+        <f t="shared" si="7"/>
         <v>690000</v>
       </c>
-      <c r="F22" s="71">
-        <f>-H10*C10</f>
+      <c r="F22" s="48">
+        <f t="shared" si="8"/>
         <v>-1000000.0000000001</v>
       </c>
-      <c r="G22" s="6"/>
-      <c r="H22" s="82"/>
-      <c r="I22" s="86">
+      <c r="G22" s="3"/>
+      <c r="H22" s="65"/>
+      <c r="I22" s="61">
         <f>I21/C3</f>
         <v>1.09145</v>
       </c>
-      <c r="J22" s="87">
+      <c r="J22" s="62">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="K22" s="88">
+      <c r="K22" s="63">
         <f>+K21/C3</f>
         <v>1.0827184000000001</v>
       </c>
-      <c r="L22" s="75">
+      <c r="L22" s="52">
         <f>+K21/C3-1</f>
         <v>8.2718400000000081E-2</v>
       </c>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B23" s="54" t="s">
-        <v>27</v>
-      </c>
-      <c r="C23" s="57">
-        <f>+(H11+I11)*C11</f>
+    <row r="23" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B23" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="84">
+        <f t="shared" si="5"/>
         <v>2712500</v>
       </c>
-      <c r="D23" s="63">
-        <f>+H11*C11</f>
+      <c r="D23" s="34">
+        <f t="shared" si="6"/>
         <v>2500000</v>
       </c>
-      <c r="E23" s="63">
-        <f>+(H11*0.69)*C11</f>
+      <c r="E23" s="40">
+        <f t="shared" si="7"/>
         <v>1724999.9999999995</v>
       </c>
-      <c r="F23" s="69">
-        <f>-H11*C11</f>
+      <c r="F23" s="46">
+        <f t="shared" si="8"/>
         <v>-2500000</v>
       </c>
-      <c r="G23" s="6"/>
-      <c r="H23" s="81" t="s">
-        <v>41</v>
-      </c>
-      <c r="I23" s="83">
+      <c r="G23" s="3"/>
+      <c r="H23" s="64" t="s">
+        <v>37</v>
+      </c>
+      <c r="I23" s="58">
         <f>+(I21*I22)</f>
         <v>11912631.025</v>
       </c>
-      <c r="J23" s="84">
+      <c r="J23" s="59">
         <f>+I23*J24</f>
         <v>95301.048200000005</v>
       </c>
-      <c r="K23" s="85">
+      <c r="K23" s="60">
         <f>+I23-J23</f>
         <v>11817329.9768</v>
       </c>
     </row>
-    <row r="24" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="C24" s="58">
-        <f>+(H12+I12)*C12</f>
+    <row r="24" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="85">
+        <f t="shared" si="5"/>
         <v>1540000.0000000002</v>
       </c>
-      <c r="D24" s="64">
-        <f>+H12*C12</f>
+      <c r="D24" s="35">
+        <f t="shared" si="6"/>
         <v>1400000.0000000002</v>
       </c>
-      <c r="E24" s="64">
-        <f>+(H12*0.69)*C12</f>
+      <c r="E24" s="41">
+        <f t="shared" si="7"/>
         <v>966000</v>
       </c>
-      <c r="F24" s="70">
-        <f>-H12*C12</f>
+      <c r="F24" s="47">
+        <f t="shared" si="8"/>
         <v>-1400000.0000000002</v>
       </c>
-      <c r="G24" s="6"/>
-      <c r="H24" s="82"/>
-      <c r="I24" s="86">
+      <c r="G24" s="3"/>
+      <c r="H24" s="65"/>
+      <c r="I24" s="61">
         <f>I23/C3</f>
         <v>1.1912631025</v>
       </c>
-      <c r="J24" s="87">
+      <c r="J24" s="62">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="K24" s="88">
+      <c r="K24" s="63">
         <f>+K23/C3</f>
         <v>1.18173299768</v>
       </c>
-      <c r="L24" s="75">
+      <c r="L24" s="52">
         <f>+K23/C3-1</f>
         <v>0.18173299767999995</v>
       </c>
     </row>
-    <row r="25" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="48" t="s">
-        <v>29</v>
-      </c>
-      <c r="C25" s="59">
-        <f>+(H13+I13)*C13</f>
+    <row r="25" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="86">
+        <f t="shared" si="5"/>
         <v>336000</v>
       </c>
-      <c r="D25" s="65">
-        <f>+H13*C13</f>
+      <c r="D25" s="36">
+        <f t="shared" si="6"/>
         <v>300000</v>
       </c>
-      <c r="E25" s="65">
-        <f>+(H13*0.69)*C13</f>
+      <c r="E25" s="42">
+        <f t="shared" si="7"/>
         <v>207000</v>
       </c>
-      <c r="F25" s="71">
-        <f>-H13*C13</f>
+      <c r="F25" s="48">
+        <f t="shared" si="8"/>
         <v>-300000</v>
       </c>
-      <c r="G25" s="6"/>
-      <c r="H25" s="81" t="s">
-        <v>42</v>
-      </c>
-      <c r="I25" s="83">
+      <c r="G25" s="3"/>
+      <c r="H25" s="64" t="s">
+        <v>38</v>
+      </c>
+      <c r="I25" s="58">
         <f>+I23*I24</f>
         <v>14191077.793779256</v>
       </c>
-      <c r="J25" s="84">
+      <c r="J25" s="59">
         <f>+I25*J26</f>
         <v>113528.62235023404</v>
       </c>
-      <c r="K25" s="85">
+      <c r="K25" s="60">
         <f>+I25-J25</f>
         <v>14077549.171429021</v>
       </c>
-      <c r="L25" s="76"/>
-    </row>
-    <row r="26" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="54" t="s">
-        <v>30</v>
-      </c>
-      <c r="C26" s="57">
-        <f>+(H14+I14)*C14</f>
+      <c r="L25" s="53"/>
+    </row>
+    <row r="26" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" s="84">
+        <f t="shared" si="5"/>
         <v>555000</v>
       </c>
-      <c r="D26" s="63">
-        <f>+H14*C14</f>
+      <c r="D26" s="34">
+        <f t="shared" si="6"/>
         <v>500000.00000000006</v>
       </c>
-      <c r="E26" s="63">
-        <f>+(H14*0.69)*C14</f>
+      <c r="E26" s="40">
+        <f t="shared" si="7"/>
         <v>345000</v>
       </c>
-      <c r="F26" s="69">
-        <f>-H14*C14</f>
+      <c r="F26" s="46">
+        <f t="shared" si="8"/>
         <v>-500000.00000000006</v>
       </c>
-      <c r="G26" s="6"/>
-      <c r="H26" s="82"/>
-      <c r="I26" s="86">
+      <c r="G26" s="3"/>
+      <c r="H26" s="65"/>
+      <c r="I26" s="61">
         <f>I25/C3</f>
         <v>1.4191077793779256</v>
       </c>
-      <c r="J26" s="87">
+      <c r="J26" s="62">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="K26" s="88">
+      <c r="K26" s="63">
         <f>+K25/C3</f>
         <v>1.407754917142902</v>
       </c>
-      <c r="L26" s="75">
+      <c r="L26" s="52">
         <f>+K25/C3-1</f>
         <v>0.40775491714290202</v>
       </c>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B27" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="C27" s="58">
-        <f>+(H15+I15)*C15</f>
+    <row r="27" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B27" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" s="85">
+        <f t="shared" si="5"/>
         <v>232000.00000000003</v>
       </c>
-      <c r="D27" s="64">
-        <f>+H15*C15</f>
+      <c r="D27" s="35">
+        <f t="shared" si="6"/>
         <v>200000</v>
       </c>
-      <c r="E27" s="64">
-        <f>+(H15*0.69)*C15</f>
+      <c r="E27" s="41">
+        <f t="shared" si="7"/>
         <v>138000</v>
       </c>
-      <c r="F27" s="70">
-        <f>-H15*C15</f>
+      <c r="F27" s="47">
+        <f t="shared" si="8"/>
         <v>-200000</v>
       </c>
-      <c r="G27" s="6"/>
-      <c r="H27" s="81" t="s">
-        <v>43</v>
-      </c>
-      <c r="I27" s="83">
+      <c r="G27" s="3"/>
+      <c r="H27" s="64" t="s">
+        <v>39</v>
+      </c>
+      <c r="I27" s="58">
         <f>+I25*I26</f>
         <v>20138668.894909471</v>
       </c>
-      <c r="J27" s="84">
+      <c r="J27" s="59">
         <f>+I27*J28</f>
         <v>161109.35115927577</v>
       </c>
-      <c r="K27" s="85">
+      <c r="K27" s="60">
         <f>+I27-J27</f>
         <v>19977559.543750197</v>
       </c>
-      <c r="L27" s="76"/>
-    </row>
-    <row r="28" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="48" t="s">
-        <v>32</v>
-      </c>
-      <c r="C28" s="59">
-        <f>+(H16+I16)*C16</f>
+      <c r="L27" s="53"/>
+    </row>
+    <row r="28" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" s="86">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="D28" s="65">
-        <f>+H16*C16</f>
+      <c r="D28" s="36">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="E28" s="65">
-        <f>+(H16*0.69)*C16</f>
+      <c r="E28" s="42">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F28" s="71">
-        <f>-H16*C16</f>
+      <c r="F28" s="48">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="G28" s="6"/>
-      <c r="H28" s="82"/>
-      <c r="I28" s="86">
+      <c r="G28" s="3"/>
+      <c r="H28" s="65"/>
+      <c r="I28" s="61">
         <f>I27/C3</f>
         <v>2.0138668894909473</v>
       </c>
-      <c r="J28" s="87">
+      <c r="J28" s="62">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="K28" s="88">
+      <c r="K28" s="63">
         <f>+K27/C3</f>
         <v>1.9977559543750196</v>
       </c>
-      <c r="L28" s="75">
+      <c r="L28" s="52">
         <f>+K27/C3-1</f>
         <v>0.99775595437501963</v>
       </c>
     </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:22" x14ac:dyDescent="0.25">
       <c r="H30" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="31" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C31" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H31" s="77" t="s">
-        <v>47</v>
-      </c>
-      <c r="I31" s="78" t="s">
         <v>44</v>
       </c>
-      <c r="J31" s="79" t="s">
-        <v>45</v>
-      </c>
-      <c r="K31" s="80" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C32" s="5"/>
-      <c r="D32" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H32" s="81" t="s">
+    </row>
+    <row r="31" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H31" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="I31" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="I32" s="83">
+      <c r="J31" s="56" t="s">
+        <v>41</v>
+      </c>
+      <c r="K31" s="57" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="H32" s="64" t="s">
+        <v>36</v>
+      </c>
+      <c r="I32" s="58">
         <f>+SUMPRODUCT(C20:F28,J8:M16)</f>
         <v>10446220</v>
       </c>
-      <c r="J32" s="84">
+      <c r="J32" s="59">
         <f>+I32*J33</f>
         <v>83569.759999999995</v>
       </c>
-      <c r="K32" s="85">
+      <c r="K32" s="60">
         <f>+I32-J32</f>
         <v>10362650.24</v>
       </c>
       <c r="L32" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="33" spans="3:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C33" s="5"/>
-      <c r="D33" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H33" s="82"/>
-      <c r="I33" s="86">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="8:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H33" s="65"/>
+      <c r="I33" s="61">
         <f>I32/C3</f>
         <v>1.0446219999999999</v>
       </c>
-      <c r="J33" s="87">
+      <c r="J33" s="62">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="K33" s="88">
+      <c r="K33" s="63">
         <f>+K32/C3</f>
         <v>1.036265024</v>
       </c>
-      <c r="L33" s="75">
+      <c r="L33" s="52">
         <f>+K32/C3-1</f>
         <v>3.6265023999999979E-2</v>
       </c>
     </row>
-    <row r="34" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="H34" s="81" t="s">
-        <v>41</v>
-      </c>
-      <c r="I34" s="83">
+    <row r="34" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H34" s="64" t="s">
+        <v>37</v>
+      </c>
+      <c r="I34" s="58">
         <f>+(I32*I33)</f>
         <v>10912351.228839999</v>
       </c>
-      <c r="J34" s="84">
+      <c r="J34" s="59">
         <f>+I34*J35</f>
         <v>87298.809830719998</v>
       </c>
-      <c r="K34" s="85">
+      <c r="K34" s="60">
         <f>+I34-J34</f>
         <v>10825052.419009279</v>
       </c>
     </row>
-    <row r="35" spans="3:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H35" s="82"/>
-      <c r="I35" s="86">
+    <row r="35" spans="8:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H35" s="65"/>
+      <c r="I35" s="61">
         <f>I34/C3</f>
         <v>1.0912351228839998</v>
       </c>
-      <c r="J35" s="87">
+      <c r="J35" s="62">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="K35" s="88">
+      <c r="K35" s="63">
         <f>+K34/C3</f>
         <v>1.082505241900928</v>
       </c>
-      <c r="L35" s="75">
-        <f>+I34/C3-1</f>
-        <v>9.123512288399982E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="H36" s="81" t="s">
-        <v>42</v>
-      </c>
-      <c r="I36" s="83">
+      <c r="L35" s="52">
+        <f>+K34/C3-1</f>
+        <v>8.2505241900928006E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H36" s="64" t="s">
+        <v>38</v>
+      </c>
+      <c r="I36" s="58">
         <f>+I34*I35</f>
         <v>11907940.934156584</v>
       </c>
-      <c r="J36" s="84">
+      <c r="J36" s="59">
         <f>+I36*J37</f>
         <v>95263.527473252674</v>
       </c>
-      <c r="K36" s="85">
+      <c r="K36" s="60">
         <f>+I36-J36</f>
         <v>11812677.406683331</v>
       </c>
-      <c r="L36" s="76"/>
-    </row>
-    <row r="37" spans="3:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H37" s="82"/>
-      <c r="I37" s="86">
+      <c r="L36" s="53"/>
+    </row>
+    <row r="37" spans="8:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H37" s="65"/>
+      <c r="I37" s="61">
         <f>I36/C3</f>
         <v>1.1907940934156585</v>
       </c>
-      <c r="J37" s="87">
+      <c r="J37" s="62">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="K37" s="88">
+      <c r="K37" s="63">
         <f>+K36/C3</f>
         <v>1.1812677406683332</v>
       </c>
-      <c r="L37" s="75">
-        <f>+I36/C3-1</f>
-        <v>0.19079409341565845</v>
-      </c>
-    </row>
-    <row r="38" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="H38" s="81" t="s">
-        <v>43</v>
-      </c>
-      <c r="I38" s="83">
+      <c r="L37" s="52">
+        <f>+K36/C3-1</f>
+        <v>0.18126774066833318</v>
+      </c>
+    </row>
+    <row r="38" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H38" s="64" t="s">
+        <v>39</v>
+      </c>
+      <c r="I38" s="58">
         <f>+I36*I37</f>
         <v>14179905.729136199</v>
       </c>
-      <c r="J38" s="84">
+      <c r="J38" s="59">
         <f>+I38*J39</f>
         <v>113439.24583308959</v>
       </c>
-      <c r="K38" s="85">
+      <c r="K38" s="60">
         <f>+I38-J38</f>
         <v>14066466.483303109</v>
       </c>
-      <c r="L38" s="76"/>
-    </row>
-    <row r="39" spans="3:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H39" s="82"/>
-      <c r="I39" s="86">
+      <c r="L38" s="53"/>
+    </row>
+    <row r="39" spans="8:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H39" s="65"/>
+      <c r="I39" s="61">
         <f>I38/C3</f>
         <v>1.41799057291362</v>
       </c>
-      <c r="J39" s="87">
+      <c r="J39" s="62">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="K39" s="88">
+      <c r="K39" s="63">
         <f>+K38/C3</f>
         <v>1.4066466483303108</v>
       </c>
-      <c r="L39" s="75">
-        <f>+I38/C3-1</f>
-        <v>0.41799057291361996</v>
+      <c r="L39" s="52">
+        <f>+K38/C3-1</f>
+        <v>0.40664664833031083</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="24">
+    <mergeCell ref="T2:V2"/>
+    <mergeCell ref="T9:V9"/>
+    <mergeCell ref="R11:R13"/>
+    <mergeCell ref="T16:V16"/>
+    <mergeCell ref="R18:R20"/>
+    <mergeCell ref="R4:R6"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J4:M4"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="C6:C7"/>
     <mergeCell ref="H32:H33"/>
     <mergeCell ref="H34:H35"/>
     <mergeCell ref="H36:H37"/>
@@ -2179,17 +2377,6 @@
     <mergeCell ref="H23:H24"/>
     <mergeCell ref="H25:H26"/>
     <mergeCell ref="H27:H28"/>
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J3:M3"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="C6:C7"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
